--- a/4.立项资料/2.中泰集团营销平台第一期（系统研发项目成本预算）.xlsx
+++ b/4.立项资料/2.中泰集团营销平台第一期（系统研发项目成本预算）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\4.立项资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\4.立项资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9866F15-2635-44AE-A2F6-48F5ED15E261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5ED972-B766-4F83-A9F3-2F868EBAAFF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="227">
   <si>
     <t>软件许可报价单</t>
   </si>
@@ -1017,39 +1017,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目经理（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签字</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）:</t>
-    </r>
-  </si>
-  <si>
     <t>项目WBS：</t>
   </si>
   <si>
@@ -1427,10 +1394,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>智慧社区第一阶段系统案发项目</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>成都</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1443,18 +1406,10 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>智慧社区第一阶段系统研发项目</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>Q001028</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>营销平台第一期项目研发预算人天</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>杨新强</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1524,6 +1479,14 @@
   </si>
   <si>
     <t>项目人员聚餐</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销平台第一期研发项目</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销平台第一期研发项目研发预算人天</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -3369,6 +3332,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="182" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3778,12 +3747,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4290,13 +4253,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="315" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="B1" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="232" t="s">
@@ -4356,12 +4319,12 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="316" t="s">
+      <c r="B7" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="318"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="320"/>
       <c r="F7" s="243">
         <f>SUM(F3:F6)</f>
         <v>0</v>
@@ -4371,8 +4334,8 @@
       <c r="B8" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="320"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="322"/>
       <c r="E8" s="245">
         <v>0.08</v>
       </c>
@@ -4382,12 +4345,12 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="318" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="318"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="320"/>
       <c r="F9" s="243">
         <f>SUM(F7:F8)</f>
         <v>0</v>
@@ -4397,8 +4360,8 @@
       <c r="B10" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="319"/>
-      <c r="D10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="322"/>
       <c r="E10" s="245">
         <v>0.4</v>
       </c>
@@ -4408,12 +4371,12 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="306"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="307"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="309"/>
       <c r="F11" s="247">
         <f>F9-F10</f>
         <v>0</v>
@@ -4439,24 +4402,24 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="308" t="s">
+      <c r="B13" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="309"/>
-      <c r="D13" s="309"/>
-      <c r="E13" s="310"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="311"/>
+      <c r="E13" s="312"/>
       <c r="F13" s="252">
         <f>F11*0.17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="311" t="s">
+      <c r="B14" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="312"/>
-      <c r="D14" s="312"/>
-      <c r="E14" s="313"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="315"/>
       <c r="F14" s="253">
         <f>F13+F12+F11</f>
         <v>0</v>
@@ -4466,13 +4429,13 @@
       <c r="E15" s="126"/>
     </row>
     <row r="16" spans="2:6" ht="18.75">
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="316" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="314"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="314"/>
+      <c r="C16" s="316"/>
+      <c r="D16" s="316"/>
+      <c r="E16" s="316"/>
+      <c r="F16" s="316"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="254" t="s">
@@ -4610,7 +4573,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4626,27 +4589,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="323"/>
+      <c r="A1" s="325"/>
       <c r="B1" s="194" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="323"/>
-      <c r="B2" s="321" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
+      <c r="A2" s="325"/>
+      <c r="B2" s="323" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
       <c r="G2" s="217"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="326" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="327" t="s">
+      <c r="B4" s="329" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="218" t="s">
@@ -4664,32 +4627,32 @@
       <c r="G4" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="329" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="325"/>
-      <c r="B5" s="328"/>
+      <c r="A5" s="327"/>
+      <c r="B5" s="330"/>
       <c r="C5" s="219" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="219" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="F5" s="219" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="219" t="s">
+      <c r="G5" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="219" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="329"/>
+      <c r="H5" s="331"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="325"/>
+      <c r="A6" s="327"/>
       <c r="B6" s="220" t="s">
         <v>37</v>
       </c>
@@ -4708,10 +4671,10 @@
       <c r="G6" s="281">
         <v>43570</v>
       </c>
-      <c r="H6" s="329"/>
+      <c r="H6" s="331"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A7" s="326"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="220" t="s">
         <v>38</v>
       </c>
@@ -4730,14 +4693,14 @@
       <c r="G7" s="281">
         <v>43646</v>
       </c>
-      <c r="H7" s="328"/>
+      <c r="H7" s="330"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1">
       <c r="A8" s="275" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="272" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C8" s="282">
         <v>12</v>
@@ -4758,15 +4721,15 @@
         <f>SUM(C8:G8)</f>
         <v>191</v>
       </c>
-      <c r="I8" s="442"/>
-      <c r="J8" s="442"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1">
       <c r="A9" s="287" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="287" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C9" s="287">
         <v>12</v>
@@ -4790,10 +4753,10 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1">
       <c r="A10" s="275" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="287" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C10" s="287"/>
       <c r="D10" s="287"/>
@@ -4813,10 +4776,10 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="275" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B11" s="274" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C11" s="287"/>
       <c r="D11" s="287"/>
@@ -4836,10 +4799,10 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="287" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" s="287" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="287"/>
       <c r="D12" s="287"/>
@@ -4859,10 +4822,10 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="287" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B13" s="287" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C13" s="287"/>
       <c r="D13" s="287"/>
@@ -4882,10 +4845,10 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="287" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="274" t="s">
         <v>215</v>
-      </c>
-      <c r="B14" s="274" t="s">
-        <v>219</v>
       </c>
       <c r="C14" s="282"/>
       <c r="D14" s="283"/>
@@ -4905,10 +4868,10 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1">
       <c r="A15" s="287" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B15" s="287" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C15" s="282"/>
       <c r="D15" s="287"/>
@@ -4926,10 +4889,10 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1">
       <c r="A16" s="287" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B16" s="274" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C16" s="282"/>
       <c r="D16" s="287"/>
@@ -4947,10 +4910,10 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickBot="1">
       <c r="A17" s="287" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" s="287" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C17" s="287"/>
       <c r="D17" s="287"/>
@@ -4970,10 +4933,10 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
       <c r="A18" s="275" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="274" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" s="282"/>
       <c r="D18" s="287"/>
@@ -4993,10 +4956,10 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1">
       <c r="A19" s="287" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="441" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="B19" s="305" t="s">
+        <v>220</v>
       </c>
       <c r="C19" s="287"/>
       <c r="D19" s="287"/>
@@ -5016,10 +4979,10 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1">
       <c r="A20" s="287" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="441" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="B20" s="305" t="s">
+        <v>221</v>
       </c>
       <c r="C20" s="287"/>
       <c r="D20" s="287"/>
@@ -5039,10 +5002,10 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
       <c r="A21" s="287" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="441" t="s">
-        <v>224</v>
+        <v>204</v>
+      </c>
+      <c r="B21" s="305" t="s">
+        <v>220</v>
       </c>
       <c r="C21" s="287"/>
       <c r="D21" s="287"/>
@@ -5059,10 +5022,10 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1">
       <c r="A22" s="275" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="273" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="282"/>
       <c r="D22" s="287"/>
@@ -5078,10 +5041,10 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" thickBot="1">
       <c r="A23" s="275" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="273" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="282"/>
       <c r="D23" s="287"/>
@@ -5313,26 +5276,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="338" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="195"/>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:8" s="77" customFormat="1">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="338"/>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -5615,13 +5578,13 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" s="192" customFormat="1">
-      <c r="A20" s="339" t="s">
+      <c r="A20" s="341" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="340"/>
-      <c r="C20" s="340"/>
-      <c r="D20" s="340"/>
-      <c r="E20" s="340"/>
+      <c r="B20" s="342"/>
+      <c r="C20" s="342"/>
+      <c r="D20" s="342"/>
+      <c r="E20" s="342"/>
       <c r="F20" s="126" t="s">
         <v>55</v>
       </c>
@@ -5631,15 +5594,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="192" customFormat="1">
-      <c r="A21" s="332" t="s">
+      <c r="A21" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="335">
-        <v>0</v>
-      </c>
-      <c r="E21" s="335"/>
+      <c r="B21" s="335"/>
+      <c r="C21" s="336"/>
+      <c r="D21" s="337">
+        <v>0</v>
+      </c>
+      <c r="E21" s="337"/>
       <c r="F21" s="200" t="s">
         <v>57</v>
       </c>
@@ -5653,13 +5616,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="192" customFormat="1">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="331"/>
-      <c r="C23" s="331"/>
-      <c r="D23" s="331"/>
-      <c r="E23" s="331"/>
+      <c r="B23" s="333"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="333"/>
       <c r="F23" s="126" t="s">
         <v>55</v>
       </c>
@@ -5669,13 +5632,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="192" customFormat="1">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="333"/>
-      <c r="C24" s="334"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="336"/>
+      <c r="D24" s="337"/>
+      <c r="E24" s="337"/>
       <c r="F24" s="200" t="s">
         <v>57</v>
       </c>
@@ -5717,7 +5680,7 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -5749,46 +5712,46 @@
       <c r="K1" s="75"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="C2" s="354" t="s">
+      <c r="C2" s="356" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354"/>
-      <c r="K2" s="355"/>
-      <c r="L2" s="355"/>
-      <c r="M2" s="355"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
+      <c r="K2" s="357"/>
+      <c r="L2" s="357"/>
+      <c r="M2" s="357"/>
       <c r="N2" s="183"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="132"/>
       <c r="C3" s="133"/>
-      <c r="D3" s="356" t="s">
+      <c r="D3" s="358" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="357"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="356" t="s">
+      <c r="E3" s="359"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="358" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="357"/>
-      <c r="I3" s="358"/>
+      <c r="H3" s="359"/>
+      <c r="I3" s="360"/>
       <c r="J3" s="184" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="359" t="s">
+      <c r="L3" s="361" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="360"/>
-      <c r="N3" s="360"/>
-      <c r="O3" s="361"/>
+      <c r="M3" s="362"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="363"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="134" t="s">
@@ -6041,14 +6004,14 @@
       <c r="C10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="362"/>
-      <c r="E10" s="362"/>
+      <c r="D10" s="364"/>
+      <c r="E10" s="364"/>
       <c r="F10" s="142">
         <f>SUM(F5:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="364"/>
       <c r="I10" s="142">
         <f>SUM(I5:I9)</f>
         <v>0</v>
@@ -6061,8 +6024,8 @@
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L10" s="363"/>
-      <c r="M10" s="364"/>
+      <c r="L10" s="365"/>
+      <c r="M10" s="366"/>
       <c r="N10" s="95"/>
       <c r="O10" s="162">
         <f>SUM(O5:O9)</f>
@@ -6076,26 +6039,26 @@
       <c r="B12" s="143"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="349" t="s">
+      <c r="B13" s="351" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="341" t="s">
+      <c r="C13" s="343" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="341"/>
-      <c r="E13" s="353" t="s">
+      <c r="D13" s="343"/>
+      <c r="E13" s="355" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="349"/>
+      <c r="B14" s="351"/>
       <c r="C14" s="108" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="353"/>
+      <c r="E14" s="355"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="116" t="s">
@@ -6116,7 +6079,7 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="145">
         <f>里程碑计划!D26</f>
@@ -6133,7 +6096,7 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="145">
         <f>里程碑计划!E26</f>
@@ -6150,7 +6113,7 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="145">
         <f>里程碑计划!F26</f>
@@ -6167,7 +6130,7 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="145">
         <f>里程碑计划!G26</f>
@@ -6227,13 +6190,13 @@
       <c r="N23" s="179"/>
     </row>
     <row r="24" spans="2:14" s="130" customFormat="1">
-      <c r="B24" s="342" t="s">
+      <c r="B24" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="342"/>
-      <c r="D24" s="342"/>
-      <c r="E24" s="342"/>
-      <c r="F24" s="342"/>
+      <c r="C24" s="344"/>
+      <c r="D24" s="344"/>
+      <c r="E24" s="344"/>
+      <c r="F24" s="344"/>
       <c r="G24" s="144"/>
       <c r="H24" s="155"/>
       <c r="I24" s="189"/>
@@ -6289,7 +6252,7 @@
     </row>
     <row r="27" spans="2:14" s="130" customFormat="1" ht="21.75" customHeight="1">
       <c r="B27" s="159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="158"/>
       <c r="D27" s="158"/>
@@ -6306,7 +6269,7 @@
     </row>
     <row r="28" spans="2:14" s="130" customFormat="1" ht="24">
       <c r="B28" s="159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="158">
         <v>40</v>
@@ -6321,7 +6284,7 @@
         <v>5200</v>
       </c>
       <c r="G28" s="159" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H28" s="155"/>
       <c r="I28" s="189"/>
@@ -6333,7 +6296,7 @@
     </row>
     <row r="29" spans="2:14" s="130" customFormat="1" ht="24">
       <c r="B29" s="159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="158">
         <v>40</v>
@@ -6348,7 +6311,7 @@
         <v>2080</v>
       </c>
       <c r="G29" s="159" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H29" s="155"/>
       <c r="I29" s="189"/>
@@ -6360,7 +6323,7 @@
     </row>
     <row r="30" spans="2:14" s="130" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="158">
         <v>100</v>
@@ -6375,7 +6338,7 @@
         <v>2600</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H30" s="155"/>
       <c r="I30" s="189"/>
@@ -6438,13 +6401,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="164"/>
-      <c r="B34" s="343" t="s">
+      <c r="B34" s="345" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="343"/>
-      <c r="D34" s="343"/>
-      <c r="E34" s="343"/>
-      <c r="F34" s="343"/>
+      <c r="C34" s="345"/>
+      <c r="D34" s="345"/>
+      <c r="E34" s="345"/>
+      <c r="F34" s="345"/>
     </row>
     <row r="35" spans="1:14">
       <c r="B35" s="165" t="s">
@@ -6483,7 +6446,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="137"/>
       <c r="D37" s="137"/>
@@ -6495,7 +6458,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
@@ -6507,10 +6470,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D39" s="137">
         <v>12</v>
@@ -6525,7 +6488,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="137"/>
       <c r="D40" s="137"/>
@@ -6614,11 +6577,11 @@
       <c r="F49" s="180"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="344" t="s">
+      <c r="B50" s="346" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="345"/>
-      <c r="D50" s="346"/>
+      <c r="C50" s="347"/>
+      <c r="D50" s="348"/>
       <c r="E50" s="163"/>
       <c r="F50" s="163"/>
     </row>
@@ -6639,10 +6602,10 @@
       <c r="B52" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="350" t="s">
+      <c r="C52" s="352" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="350">
+      <c r="D52" s="352">
         <v>2000</v>
       </c>
       <c r="E52" s="143"/>
@@ -6650,37 +6613,37 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="351"/>
-      <c r="D53" s="351"/>
+        <v>199</v>
+      </c>
+      <c r="C53" s="353"/>
+      <c r="D53" s="353"/>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="351"/>
-      <c r="D54" s="351"/>
+        <v>200</v>
+      </c>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
       <c r="E54" s="143"/>
       <c r="F54" s="143"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="351"/>
-      <c r="D55" s="351"/>
+        <v>201</v>
+      </c>
+      <c r="C55" s="353"/>
+      <c r="D55" s="353"/>
       <c r="E55" s="143"/>
       <c r="F55" s="143"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="352"/>
-      <c r="D56" s="352"/>
+        <v>202</v>
+      </c>
+      <c r="C56" s="354"/>
+      <c r="D56" s="354"/>
       <c r="E56" s="181"/>
       <c r="F56" s="143"/>
     </row>
@@ -6706,11 +6669,11 @@
       <c r="F58" s="143"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="347" t="s">
+      <c r="B60" s="349" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="347"/>
-      <c r="D60" s="348"/>
+      <c r="C60" s="349"/>
+      <c r="D60" s="350"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="156" t="s">
@@ -6732,28 +6695,28 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="137"/>
       <c r="D63" s="137"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="137"/>
       <c r="D64" s="137"/>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="137"/>
       <c r="D65" s="137"/>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="137"/>
       <c r="D66" s="137"/>
@@ -6818,22 +6781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="339" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="112" t="s">
@@ -6871,28 +6834,28 @@
         <v>103</v>
       </c>
       <c r="F3" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="270" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>186</v>
-      </c>
-      <c r="G3" s="270" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>187</v>
       </c>
       <c r="I3" s="84" t="s">
         <v>105</v>
       </c>
       <c r="J3" s="270" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K3" s="270" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L3" s="270" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="270" t="s">
         <v>194</v>
-      </c>
-      <c r="M3" s="270" t="s">
-        <v>195</v>
       </c>
       <c r="N3" s="84" t="s">
         <v>106</v>
@@ -7223,10 +7186,10 @@
       <c r="O10" s="128"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="365" t="s">
+      <c r="A12" s="367" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="365"/>
+      <c r="B12" s="367"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="122" t="s">
@@ -7262,10 +7225,10 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="366" t="s">
+      <c r="A17" s="368" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="367"/>
+      <c r="B17" s="369"/>
       <c r="C17" s="65" t="s">
         <v>115</v>
       </c>
@@ -7389,7 +7352,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7408,27 +7371,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="420" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
-      <c r="G1" s="418"/>
-      <c r="H1" s="418"/>
-      <c r="I1" s="418"/>
-      <c r="J1" s="418"/>
-      <c r="K1" s="418"/>
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
+      <c r="G1" s="420"/>
+      <c r="H1" s="420"/>
+      <c r="I1" s="420"/>
+      <c r="J1" s="420"/>
+      <c r="K1" s="420"/>
     </row>
     <row r="2" spans="1:11" s="77" customFormat="1" ht="10.5" customHeight="1">
       <c r="A2" s="80"/>
-      <c r="B2" s="419"/>
-      <c r="C2" s="420"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="422"/>
       <c r="D2" s="80"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="422"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="424"/>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
@@ -7437,126 +7400,126 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="392" t="s">
+      <c r="A3" s="394" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="393"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="394"/>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="396"/>
     </row>
     <row r="4" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="423" t="s">
+      <c r="A4" s="425" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="424"/>
-      <c r="C4" s="402"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="404"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="405"/>
+      <c r="E4" s="406"/>
       <c r="H4" s="82"/>
       <c r="I4" s="105"/>
-      <c r="J4" s="425"/>
-      <c r="K4" s="426"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="428"/>
     </row>
     <row r="5" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="400" t="s">
+      <c r="A5" s="402" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="401"/>
-      <c r="C5" s="402" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="403"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="405" t="s">
+      <c r="B5" s="403"/>
+      <c r="C5" s="404" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="406"/>
+      <c r="G5" s="408"/>
       <c r="H5" s="83"/>
       <c r="I5" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="407" t="s">
-        <v>209</v>
-      </c>
-      <c r="K5" s="408"/>
+      <c r="J5" s="409" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="410"/>
     </row>
     <row r="6" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="409" t="s">
+      <c r="A6" s="411" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="410"/>
-      <c r="C6" s="411">
+      <c r="B6" s="412"/>
+      <c r="C6" s="413">
         <f>MIN(C10:C14)</f>
         <v>43417</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="413"/>
-      <c r="F6" s="414" t="s">
+      <c r="D6" s="414"/>
+      <c r="E6" s="415"/>
+      <c r="F6" s="416" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="415"/>
-      <c r="H6" s="411">
+      <c r="G6" s="417"/>
+      <c r="H6" s="413">
         <f>MAX(D10:D14)</f>
         <v>43646</v>
       </c>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="417"/>
+      <c r="I6" s="418"/>
+      <c r="J6" s="418"/>
+      <c r="K6" s="419"/>
     </row>
     <row r="7" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="392" t="s">
+      <c r="A7" s="394" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="393"/>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393"/>
-      <c r="F7" s="393"/>
-      <c r="G7" s="393"/>
-      <c r="H7" s="393"/>
-      <c r="I7" s="393"/>
-      <c r="J7" s="393"/>
-      <c r="K7" s="394"/>
+      <c r="B7" s="395"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="396"/>
     </row>
     <row r="8" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="398" t="s">
+      <c r="A8" s="400" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372" t="s">
+      <c r="B8" s="374"/>
+      <c r="C8" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="372" t="s">
+      <c r="D8" s="374" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="395" t="s">
+      <c r="E8" s="397" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="396"/>
-      <c r="G8" s="397"/>
-      <c r="H8" s="373"/>
-      <c r="I8" s="349" t="s">
+      <c r="F8" s="398"/>
+      <c r="G8" s="399"/>
+      <c r="H8" s="375"/>
+      <c r="I8" s="351" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="374" t="s">
+      <c r="J8" s="376" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="349" t="s">
+      <c r="K8" s="351" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="399"/>
-      <c r="B9" s="373"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
+      <c r="A9" s="401"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="375"/>
+      <c r="D9" s="375"/>
       <c r="E9" s="84" t="s">
         <v>102</v>
       </c>
@@ -7569,15 +7532,15 @@
       <c r="H9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="349"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="349"/>
+      <c r="I9" s="351"/>
+      <c r="J9" s="376"/>
+      <c r="K9" s="351"/>
     </row>
     <row r="10" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="380" t="s">
+      <c r="A10" s="382" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="381"/>
+      <c r="B10" s="383"/>
       <c r="C10" s="85">
         <f>里程碑计划!C6</f>
         <v>43417</v>
@@ -7616,10 +7579,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="380" t="s">
+      <c r="A11" s="382" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="381"/>
+      <c r="B11" s="383"/>
       <c r="C11" s="85">
         <f>里程碑计划!D6</f>
         <v>43423</v>
@@ -7658,10 +7621,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="380" t="s">
+      <c r="A12" s="382" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="381"/>
+      <c r="B12" s="383"/>
       <c r="C12" s="85">
         <f>里程碑计划!E6</f>
         <v>43430</v>
@@ -7700,10 +7663,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="382" t="s">
+      <c r="A13" s="384" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="383"/>
+      <c r="B13" s="385"/>
       <c r="C13" s="85">
         <f>里程碑计划!F6</f>
         <v>43514</v>
@@ -7742,10 +7705,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="380" t="s">
+      <c r="A14" s="382" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="381"/>
+      <c r="B14" s="383"/>
       <c r="C14" s="85">
         <f>里程碑计划!G6</f>
         <v>43570</v>
@@ -7784,12 +7747,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="384" t="s">
+      <c r="A15" s="386" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="385"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
       <c r="E15" s="88">
         <f t="shared" ref="E15:K15" si="0">SUM(E10:E14)</f>
         <v>1636</v>
@@ -7820,43 +7783,43 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="388" t="s">
+      <c r="A16" s="390" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="389"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="390"/>
-      <c r="H16" s="390"/>
-      <c r="I16" s="390"/>
-      <c r="J16" s="390"/>
-      <c r="K16" s="391"/>
+      <c r="B16" s="391"/>
+      <c r="C16" s="391"/>
+      <c r="D16" s="391"/>
+      <c r="E16" s="391"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="392"/>
+      <c r="K16" s="393"/>
     </row>
     <row r="17" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="375" t="s">
+      <c r="A17" s="377" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="353"/>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="353" t="s">
+      <c r="B17" s="355"/>
+      <c r="C17" s="355"/>
+      <c r="D17" s="355"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
-      <c r="J17" s="373"/>
-      <c r="K17" s="377"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="375"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="375"/>
+      <c r="K17" s="379"/>
       <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="380" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="376"/>
+      <c r="B18" s="378"/>
       <c r="C18" s="84" t="s">
         <v>60</v>
       </c>
@@ -7864,67 +7827,67 @@
         <v>130</v>
       </c>
       <c r="E18" s="94"/>
-      <c r="F18" s="349" t="s">
+      <c r="F18" s="351" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="373"/>
-      <c r="H18" s="373"/>
-      <c r="I18" s="379">
+      <c r="G18" s="375"/>
+      <c r="H18" s="375"/>
+      <c r="I18" s="381">
         <f>F15+J15</f>
         <v>1192300</v>
       </c>
-      <c r="J18" s="373" t="s">
+      <c r="J18" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="377" t="s">
+      <c r="K18" s="379" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="78" customFormat="1">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="388" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="364"/>
+      <c r="B19" s="366"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97">
         <f>E15</f>
         <v>1636</v>
       </c>
       <c r="E19" s="98"/>
-      <c r="F19" s="349" t="s">
+      <c r="F19" s="351" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="373"/>
-      <c r="H19" s="373"/>
-      <c r="I19" s="379">
+      <c r="G19" s="375"/>
+      <c r="H19" s="375"/>
+      <c r="I19" s="381">
         <f>I15</f>
         <v>4000</v>
       </c>
-      <c r="J19" s="373"/>
-      <c r="K19" s="377"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="379"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="387" t="s">
+      <c r="A20" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="376"/>
+      <c r="B20" s="378"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97">
         <f>G15</f>
         <v>0</v>
       </c>
       <c r="E20" s="98"/>
-      <c r="F20" s="349" t="s">
+      <c r="F20" s="351" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="373"/>
-      <c r="H20" s="373"/>
-      <c r="I20" s="379">
+      <c r="G20" s="375"/>
+      <c r="H20" s="375"/>
+      <c r="I20" s="381">
         <f>H15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="373"/>
-      <c r="K20" s="377"/>
+      <c r="J20" s="375"/>
+      <c r="K20" s="379"/>
     </row>
     <row r="21" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="99"/>
@@ -7932,19 +7895,19 @@
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
-      <c r="F21" s="368" t="s">
+      <c r="F21" s="370" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="369"/>
-      <c r="H21" s="369" t="e">
+      <c r="G21" s="371"/>
+      <c r="H21" s="371" t="e">
         <f>IF(G21&gt;(#REF!-#REF!-#REF!)*0.5%,"F","")</f>
         <v>#REF!</v>
       </c>
-      <c r="I21" s="370" t="s">
+      <c r="I21" s="372" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="369"/>
-      <c r="K21" s="371"/>
+      <c r="J21" s="371"/>
+      <c r="K21" s="373"/>
     </row>
     <row r="23" spans="1:12" ht="29.25" customHeight="1">
       <c r="A23" s="101"/>
@@ -8018,8 +7981,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -8037,16 +8000,16 @@
   <sheetData>
     <row r="1" spans="1:256" customFormat="1" ht="21">
       <c r="A1" s="14"/>
-      <c r="B1" s="427" t="s">
+      <c r="B1" s="429" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
       <c r="J1" s="16"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -8054,7 +8017,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:256" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:256" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="299" t="s">
         <v>138</v>
       </c>
@@ -8071,13 +8034,11 @@
       <c r="A3" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="301" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="301" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="301"/>
+      <c r="B3" s="404" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="405"/>
+      <c r="D3" s="406"/>
       <c r="E3" s="302"/>
       <c r="F3" s="299"/>
       <c r="G3" s="299"/>
@@ -8087,18 +8048,18 @@
     </row>
     <row r="4" spans="1:256" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="292"/>
       <c r="C4" s="293" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="294" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" s="295"/>
       <c r="F4" s="296" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="297">
         <f>里程碑计划!C6</f>
@@ -8110,12 +8071,12 @@
       </c>
     </row>
     <row r="5" spans="1:256" ht="25.5" customHeight="1">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="431" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="432"/>
+      <c r="C5" s="288" t="s">
         <v>144</v>
-      </c>
-      <c r="B5" s="430"/>
-      <c r="C5" s="288" t="s">
-        <v>145</v>
       </c>
       <c r="D5" s="289" t="s">
         <v>132</v>
@@ -8124,31 +8085,31 @@
         <v>107</v>
       </c>
       <c r="F5" s="291" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="2" customFormat="1" ht="38.25">
       <c r="A6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="D6" s="23">
         <f>外部材料采购!F26/1.17</f>
         <v>0</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -8354,46 +8315,46 @@
       <c r="IV6" s="75"/>
     </row>
     <row r="7" spans="1:256" ht="39" customHeight="1">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="436" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="440" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="438" t="s">
+      <c r="C7" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="29">
         <f>外部服务采购!G15</f>
         <v>163584.90566037735</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:256" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A8" s="435"/>
-      <c r="B8" s="439"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="441"/>
       <c r="C8" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="29">
         <f>外部服务采购!G21</f>
         <v>0</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:256" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A9" s="436"/>
-      <c r="B9" s="440"/>
+      <c r="A9" s="438"/>
+      <c r="B9" s="442"/>
       <c r="C9" s="28" t="s">
         <v>66</v>
       </c>
@@ -8407,14 +8368,14 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A10" s="434" t="s">
+      <c r="A10" s="436" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="35" t="s">
         <v>159</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>160</v>
       </c>
       <c r="D10" s="36">
         <f>项目日常费用!F10+项目日常费用!I10</f>
@@ -8426,12 +8387,12 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:256">
-      <c r="A11" s="435"/>
+      <c r="A11" s="437"/>
       <c r="B11" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>161</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>162</v>
       </c>
       <c r="D11" s="36">
         <f>项目日常费用!J10</f>
@@ -8443,31 +8404,31 @@
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:256" ht="36">
-      <c r="A12" s="435"/>
+      <c r="A12" s="437"/>
       <c r="B12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>164</v>
       </c>
       <c r="D12" s="36">
         <f>项目日常费用!O10</f>
         <v>0</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:256">
-      <c r="A13" s="435"/>
+      <c r="A13" s="437"/>
       <c r="B13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>167</v>
       </c>
       <c r="D13" s="36">
         <f>项目日常费用!F32</f>
@@ -8479,68 +8440,68 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:256" ht="29.25" customHeight="1">
-      <c r="A14" s="435"/>
+      <c r="A14" s="437"/>
       <c r="B14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D14" s="36">
         <f>项目日常费用!F46</f>
         <v>3600</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:256" ht="29.25" customHeight="1">
-      <c r="A15" s="436"/>
+      <c r="A15" s="438"/>
       <c r="B15" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="36">
         <f>项目日常费用!D58</f>
         <v>2000</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:256">
-      <c r="A16" s="437" t="s">
+      <c r="A16" s="439" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>173</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>174</v>
       </c>
       <c r="D16" s="36">
         <f>人力资源成本计划!F10</f>
         <v>1145200</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="437"/>
+      <c r="A17" s="439"/>
       <c r="B17" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36">
@@ -8548,7 +8509,7 @@
         <v>47100</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -8556,7 +8517,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="35"/>
@@ -8576,16 +8537,16 @@
       <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A19" s="431" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="432"/>
-      <c r="C19" s="432"/>
-      <c r="D19" s="432"/>
-      <c r="E19" s="432"/>
-      <c r="F19" s="432"/>
-      <c r="G19" s="432"/>
-      <c r="H19" s="433"/>
+      <c r="A19" s="433" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="434"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="434"/>
+      <c r="E19" s="434"/>
+      <c r="F19" s="434"/>
+      <c r="G19" s="434"/>
+      <c r="H19" s="435"/>
       <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="14.25">
@@ -8620,7 +8581,7 @@
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="61"/>
@@ -8631,7 +8592,7 @@
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="61"/>
@@ -8642,7 +8603,7 @@
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="61"/>
@@ -8653,7 +8614,7 @@
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="61"/>
@@ -8664,7 +8625,7 @@
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
@@ -8675,7 +8636,7 @@
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1">
       <c r="A28" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="67"/>
@@ -8691,7 +8652,7 @@
     <protectedRange sqref="D7:D9 H22 D18:H18 D11:G15 D20:G22" name="区域1" securityDescriptor=""/>
     <protectedRange sqref="D19:H19" name="区域1_3" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A19:H19"/>
@@ -8699,6 +8660,7 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="1">

--- a/4.立项资料/2.中泰集团营销平台第一期（系统研发项目成本预算）.xlsx
+++ b/4.立项资料/2.中泰集团营销平台第一期（系统研发项目成本预算）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\4.立项资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\4.立项资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5ED972-B766-4F83-A9F3-2F868EBAAFF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D590453-161F-4970-A5D1-3665E218D04C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="528" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部材料采购" sheetId="19" r:id="rId1"/>
@@ -3446,6 +3446,39 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="181" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3485,39 +3518,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3528,157 +3528,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3692,11 +3541,32 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3705,6 +3575,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4569,11 +4569,11 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4691,7 +4691,7 @@
         <v>43567</v>
       </c>
       <c r="G7" s="281">
-        <v>43646</v>
+        <v>43615</v>
       </c>
       <c r="H7" s="330"/>
     </row>
@@ -4759,7 +4759,9 @@
         <v>210</v>
       </c>
       <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
+      <c r="D10" s="287">
+        <v>5</v>
+      </c>
       <c r="E10" s="287">
         <v>10</v>
       </c>
@@ -4771,7 +4773,7 @@
       </c>
       <c r="H10" s="226">
         <f t="shared" ref="H10:H23" si="0">SUM(C10:G10)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -4782,19 +4784,21 @@
         <v>212</v>
       </c>
       <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
+      <c r="D11" s="287">
+        <v>5</v>
+      </c>
       <c r="E11" s="287">
         <v>97</v>
       </c>
       <c r="F11" s="287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="287">
         <v>20</v>
       </c>
       <c r="H11" s="226">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4805,19 +4809,21 @@
         <v>213</v>
       </c>
       <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
+      <c r="D12" s="287">
+        <v>5</v>
+      </c>
       <c r="E12" s="287">
         <v>97</v>
       </c>
       <c r="F12" s="287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="287">
         <v>20</v>
       </c>
       <c r="H12" s="226">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
@@ -4828,19 +4834,21 @@
         <v>214</v>
       </c>
       <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
+      <c r="D13" s="287">
+        <v>5</v>
+      </c>
       <c r="E13" s="287">
         <v>97</v>
       </c>
       <c r="F13" s="287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="287">
         <v>20</v>
       </c>
       <c r="H13" s="226">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
@@ -4851,19 +4859,21 @@
         <v>215</v>
       </c>
       <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
+      <c r="D14" s="283">
+        <v>5</v>
+      </c>
       <c r="E14" s="287">
         <v>97</v>
       </c>
       <c r="F14" s="287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" s="287">
         <v>10</v>
       </c>
       <c r="H14" s="226">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1">
@@ -4874,7 +4884,9 @@
         <v>216</v>
       </c>
       <c r="C15" s="282"/>
-      <c r="D15" s="287"/>
+      <c r="D15" s="287">
+        <v>5</v>
+      </c>
       <c r="E15" s="287">
         <v>97</v>
       </c>
@@ -4884,7 +4896,7 @@
       <c r="G15" s="287"/>
       <c r="H15" s="226">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1">
@@ -4895,7 +4907,9 @@
         <v>217</v>
       </c>
       <c r="C16" s="282"/>
-      <c r="D16" s="287"/>
+      <c r="D16" s="287">
+        <v>5</v>
+      </c>
       <c r="E16" s="287">
         <v>97</v>
       </c>
@@ -4905,7 +4919,7 @@
       <c r="G16" s="287"/>
       <c r="H16" s="226">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickBot="1">
@@ -4916,7 +4930,9 @@
         <v>218</v>
       </c>
       <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
+      <c r="D17" s="287">
+        <v>5</v>
+      </c>
       <c r="E17" s="287">
         <v>97</v>
       </c>
@@ -4928,7 +4944,7 @@
       </c>
       <c r="H17" s="226">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
@@ -4944,14 +4960,14 @@
         <v>64</v>
       </c>
       <c r="F18" s="287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18" s="287">
         <v>20</v>
       </c>
       <c r="H18" s="226">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1">
@@ -4993,11 +5009,11 @@
         <v>50</v>
       </c>
       <c r="G20" s="287">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H20" s="226">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1">
@@ -5016,7 +5032,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="287">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H21" s="226"/>
     </row>
@@ -5067,7 +5083,7 @@
       </c>
       <c r="D24" s="226">
         <f>SUM(D8:D23)</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E24" s="226">
         <f>SUM(E8:E23)</f>
@@ -5075,11 +5091,11 @@
       </c>
       <c r="F24" s="226">
         <f>SUM(F8:F23)</f>
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G24" s="226">
         <f>SUM(G8:G23)</f>
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="H24" s="222"/>
       <c r="K24" s="216" t="s">
@@ -5107,7 +5123,7 @@
       </c>
       <c r="D26" s="225">
         <f>D24-D27</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E26" s="225">
         <f>E24-E27</f>
@@ -5115,15 +5131,15 @@
       </c>
       <c r="F26" s="225">
         <f>F24-F27</f>
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G26" s="225">
         <f>G24-G27</f>
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="H26" s="226">
         <f>SUM(C26:G26)</f>
-        <v>1636</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5326,7 +5342,7 @@
       </c>
       <c r="E6" s="199">
         <f>MAX(C9:C13)</f>
-        <v>43646</v>
+        <v>43615</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -5468,7 +5484,7 @@
       </c>
       <c r="C13" s="85">
         <f>里程碑计划!G7</f>
-        <v>43646</v>
+        <v>43615</v>
       </c>
       <c r="D13" s="86">
         <f>里程碑计划!D30</f>
@@ -5712,46 +5728,46 @@
       <c r="K1" s="75"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="343" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
-      <c r="K2" s="357"/>
-      <c r="L2" s="357"/>
-      <c r="M2" s="357"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
       <c r="N2" s="183"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="132"/>
       <c r="C3" s="133"/>
-      <c r="D3" s="358" t="s">
+      <c r="D3" s="345" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="359"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="358" t="s">
+      <c r="E3" s="346"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="345" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="359"/>
-      <c r="I3" s="360"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="347"/>
       <c r="J3" s="184" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="361" t="s">
+      <c r="L3" s="348" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="362"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="363"/>
+      <c r="M3" s="349"/>
+      <c r="N3" s="349"/>
+      <c r="O3" s="350"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="134" t="s">
@@ -6004,14 +6020,14 @@
       <c r="C10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
       <c r="F10" s="142">
         <f>SUM(F5:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="364"/>
-      <c r="H10" s="364"/>
+      <c r="G10" s="351"/>
+      <c r="H10" s="351"/>
       <c r="I10" s="142">
         <f>SUM(I5:I9)</f>
         <v>0</v>
@@ -6024,8 +6040,8 @@
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L10" s="365"/>
-      <c r="M10" s="366"/>
+      <c r="L10" s="352"/>
+      <c r="M10" s="353"/>
       <c r="N10" s="95"/>
       <c r="O10" s="162">
         <f>SUM(O5:O9)</f>
@@ -6039,26 +6055,26 @@
       <c r="B12" s="143"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="351" t="s">
+      <c r="B13" s="362" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="343" t="s">
+      <c r="C13" s="354" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="343"/>
-      <c r="E13" s="355" t="s">
+      <c r="D13" s="354"/>
+      <c r="E13" s="366" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="351"/>
+      <c r="B14" s="362"/>
       <c r="C14" s="108" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="355"/>
+      <c r="E14" s="366"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="116" t="s">
@@ -6070,11 +6086,11 @@
       </c>
       <c r="D15" s="146">
         <f>IF(ISERROR(C15/C20),"",C15/C20)</f>
-        <v>1.4669926650366748E-2</v>
+        <v>1.4519056261343012E-2</v>
       </c>
       <c r="E15" s="147">
         <f>D15*K10</f>
-        <v>58.679706601466989</v>
+        <v>58.076225045372048</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -6083,15 +6099,15 @@
       </c>
       <c r="C16" s="145">
         <f>里程碑计划!D26</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D16" s="146">
         <f>IF(ISERROR(C16/C20),"",C16/C20)</f>
-        <v>2.8117359413202935E-2</v>
+        <v>5.2026618269812461E-2</v>
       </c>
       <c r="E16" s="147">
         <f>D16*K10</f>
-        <v>112.46943765281173</v>
+        <v>208.10647307924984</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -6104,11 +6120,11 @@
       </c>
       <c r="D17" s="146">
         <f>IF(ISERROR(C17/C20),"",C17/C20)</f>
-        <v>0.63997555012224938</v>
+        <v>0.6333938294010889</v>
       </c>
       <c r="E17" s="147">
         <f>D17*K10</f>
-        <v>2559.9022004889976</v>
+        <v>2533.5753176043554</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -6117,15 +6133,15 @@
       </c>
       <c r="C18" s="145">
         <f>里程碑计划!F26</f>
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D18" s="146">
         <f>IF(ISERROR(C18/C20),"",C18/C20)</f>
-        <v>0.10024449877750612</v>
+        <v>0.11433756805807622</v>
       </c>
       <c r="E18" s="147">
         <f>D18*K10</f>
-        <v>400.97799511002444</v>
+        <v>457.35027223230492</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -6134,15 +6150,15 @@
       </c>
       <c r="C19" s="145">
         <f>里程碑计划!G26</f>
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="D19" s="146">
         <f>IF(ISERROR(C19/C20),"",C19/C20)</f>
-        <v>0.2169926650366748</v>
+        <v>0.18572292800967938</v>
       </c>
       <c r="E19" s="147">
         <f>D19*K10</f>
-        <v>867.97066014669917</v>
+        <v>742.89171203871751</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -6151,7 +6167,7 @@
       </c>
       <c r="C20" s="145">
         <f>SUM(C15:C19)</f>
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="D20" s="149"/>
       <c r="E20" s="150"/>
@@ -6190,13 +6206,13 @@
       <c r="N23" s="179"/>
     </row>
     <row r="24" spans="2:14" s="130" customFormat="1">
-      <c r="B24" s="344" t="s">
+      <c r="B24" s="355" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="344"/>
-      <c r="D24" s="344"/>
-      <c r="E24" s="344"/>
-      <c r="F24" s="344"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="355"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="355"/>
       <c r="G24" s="144"/>
       <c r="H24" s="155"/>
       <c r="I24" s="189"/>
@@ -6401,13 +6417,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="164"/>
-      <c r="B34" s="345" t="s">
+      <c r="B34" s="356" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="345"/>
-      <c r="D34" s="345"/>
-      <c r="E34" s="345"/>
-      <c r="F34" s="345"/>
+      <c r="C34" s="356"/>
+      <c r="D34" s="356"/>
+      <c r="E34" s="356"/>
+      <c r="F34" s="356"/>
     </row>
     <row r="35" spans="1:14">
       <c r="B35" s="165" t="s">
@@ -6577,11 +6593,11 @@
       <c r="F49" s="180"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="346" t="s">
+      <c r="B50" s="357" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="347"/>
-      <c r="D50" s="348"/>
+      <c r="C50" s="358"/>
+      <c r="D50" s="359"/>
       <c r="E50" s="163"/>
       <c r="F50" s="163"/>
     </row>
@@ -6602,10 +6618,10 @@
       <c r="B52" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="352" t="s">
+      <c r="C52" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="352">
+      <c r="D52" s="363">
         <v>2000</v>
       </c>
       <c r="E52" s="143"/>
@@ -6615,8 +6631,8 @@
       <c r="B53" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="353"/>
-      <c r="D53" s="353"/>
+      <c r="C53" s="364"/>
+      <c r="D53" s="364"/>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
     </row>
@@ -6624,8 +6640,8 @@
       <c r="B54" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="353"/>
-      <c r="D54" s="353"/>
+      <c r="C54" s="364"/>
+      <c r="D54" s="364"/>
       <c r="E54" s="143"/>
       <c r="F54" s="143"/>
     </row>
@@ -6633,8 +6649,8 @@
       <c r="B55" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="353"/>
-      <c r="D55" s="353"/>
+      <c r="C55" s="364"/>
+      <c r="D55" s="364"/>
       <c r="E55" s="143"/>
       <c r="F55" s="143"/>
     </row>
@@ -6642,8 +6658,8 @@
       <c r="B56" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="354"/>
-      <c r="D56" s="354"/>
+      <c r="C56" s="365"/>
+      <c r="D56" s="365"/>
       <c r="E56" s="181"/>
       <c r="F56" s="143"/>
     </row>
@@ -6669,11 +6685,11 @@
       <c r="F58" s="143"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="349" t="s">
+      <c r="B60" s="360" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="349"/>
-      <c r="D60" s="350"/>
+      <c r="C60" s="360"/>
+      <c r="D60" s="361"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="156" t="s">
@@ -6733,13 +6749,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B34:F34"/>
@@ -6749,6 +6758,13 @@
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="D52:D56"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6764,7 +6780,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6933,14 +6949,14 @@
       </c>
       <c r="D5" s="86">
         <f>里程碑计划!D26</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E5" s="117" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="87">
         <f>IF(E5="SAP事业部",$B$13*D5,IF(E5="PDM事业部",$B$14*D5,IF(E5="电子商务研发部",$B$14*D5,IF(E5="云服务事业部",$B$15*D5,IF(E5="SEI产品研发部",$B$15*D5,IF(E5="物流咨询事业部",$B$15*D5,IF(E5="集团支持服务部",$B$16*D5,IF(E5="集成事业部",$B$16*D5,IF(E5="教育事业部",$B$16*D5,IF(E5="系统运维服务部",$B$16*D5,))))))))))</f>
-        <v>32200</v>
+        <v>60200</v>
       </c>
       <c r="G5" s="117">
         <v>20</v>
@@ -6963,12 +6979,12 @@
         <v>0</v>
       </c>
       <c r="M5" s="86">
-        <f t="shared" ref="M5:M8" si="3">I5+L5</f>
+        <f t="shared" ref="M5:M6" si="3">I5+L5</f>
         <v>1200</v>
       </c>
       <c r="N5" s="87">
         <f>F5+M5</f>
-        <v>33400</v>
+        <v>61400</v>
       </c>
       <c r="O5" s="128"/>
     </row>
@@ -7013,16 +7029,15 @@
         <v>160</v>
       </c>
       <c r="L6" s="86">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="M6" s="86">
         <f t="shared" si="3"/>
-        <v>37200</v>
+        <v>87200</v>
       </c>
       <c r="N6" s="87">
         <f t="shared" si="2"/>
-        <v>770100</v>
+        <v>820100</v>
       </c>
       <c r="O6" s="128"/>
     </row>
@@ -7041,14 +7056,14 @@
       </c>
       <c r="D7" s="86">
         <f>里程碑计划!F26</f>
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E7" s="117" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="87">
         <f>IF(E7="SAP事业部",$B$13*D7,IF(E7="PDM事业部",$B$14*D7,IF(E7="电子商务研发部",$B$14*D7,IF(E7="云服务事业部",$B$15*D7,IF(E7="SEI产品研发部",$B$15*D7,IF(E7="物流咨询事业部",$B$15*D7,IF(E7="集团支持服务部",$B$16*D7,IF(E7="集成事业部",$B$16*D7,IF(E7="教育事业部",$B$16*D7,IF(E7="系统运维服务部",$B$16*D7,))))))))))</f>
-        <v>114800</v>
+        <v>132300</v>
       </c>
       <c r="G7" s="117">
         <v>68</v>
@@ -7067,16 +7082,15 @@
         <v>160</v>
       </c>
       <c r="L7" s="86">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="86">
-        <f t="shared" si="3"/>
+        <f>I7+L7</f>
         <v>4080</v>
       </c>
       <c r="N7" s="87">
         <f t="shared" si="2"/>
-        <v>118880</v>
+        <v>136380</v>
       </c>
       <c r="O7" s="128"/>
     </row>
@@ -7091,18 +7105,18 @@
       </c>
       <c r="C8" s="85">
         <f>里程碑计划!G7</f>
-        <v>43646</v>
+        <v>43615</v>
       </c>
       <c r="D8" s="86">
         <f>里程碑计划!G26</f>
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="E8" s="117" t="s">
         <v>108</v>
       </c>
       <c r="F8" s="87">
         <f>IF(E8="SAP事业部",$B$13*D8,IF(E8="PDM事业部",$B$14*D8,IF(E8="电子商务研发部",$B$14*D8,IF(E8="云服务事业部",$B$15*D8,IF(E8="SEI产品研发部",$B$15*D8,IF(E8="物流咨询事业部",$B$15*D8,IF(E8="集团支持服务部",$B$16*D8,IF(E8="集成事业部",$B$16*D8,IF(E8="教育事业部",$B$16*D8,IF(E8="系统运维服务部",$B$16*D8,))))))))))</f>
-        <v>248500</v>
+        <v>214900</v>
       </c>
       <c r="G8" s="117">
         <v>56</v>
@@ -7121,16 +7135,15 @@
         <v>160</v>
       </c>
       <c r="L8" s="86">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="M8" s="86">
-        <f t="shared" si="3"/>
-        <v>3360</v>
+        <f>I8+L8</f>
+        <v>53360</v>
       </c>
       <c r="N8" s="87">
         <f t="shared" si="2"/>
-        <v>251860</v>
+        <v>268260</v>
       </c>
       <c r="O8" s="128"/>
     </row>
@@ -7159,12 +7172,12 @@
       <c r="C10" s="93"/>
       <c r="D10" s="120">
         <f>SUM(D4:D9)</f>
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="121">
         <f>SUM(F4:F9)</f>
-        <v>1145200</v>
+        <v>1157100</v>
       </c>
       <c r="G10" s="121"/>
       <c r="H10" s="121"/>
@@ -7176,12 +7189,12 @@
       <c r="K10" s="121"/>
       <c r="L10" s="121">
         <f>SUM(L4:L9)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M10" s="121"/>
       <c r="N10" s="87">
         <f>F10+I10+L10</f>
-        <v>1192300</v>
+        <v>1304200</v>
       </c>
       <c r="O10" s="128"/>
     </row>
@@ -7260,7 +7273,7 @@
       </c>
       <c r="B20" s="304">
         <f t="shared" si="4"/>
-        <v>37200</v>
+        <v>87200</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7279,7 +7292,7 @@
       </c>
       <c r="B22" s="304">
         <f t="shared" si="4"/>
-        <v>3360</v>
+        <v>53360</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7352,7 +7365,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="H6" sqref="H6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7371,27 +7384,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="370" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
-      <c r="K1" s="420"/>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
     </row>
     <row r="2" spans="1:11" s="77" customFormat="1" ht="10.5" customHeight="1">
       <c r="A2" s="80"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="372"/>
       <c r="D2" s="80"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="424"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="374"/>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
@@ -7400,126 +7413,126 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="375" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="396"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="377"/>
     </row>
     <row r="4" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="378" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="405"/>
-      <c r="E4" s="406"/>
+      <c r="B4" s="379"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="382"/>
       <c r="H4" s="82"/>
       <c r="I4" s="105"/>
-      <c r="J4" s="427"/>
-      <c r="K4" s="428"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="384"/>
     </row>
     <row r="5" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="402" t="s">
+      <c r="A5" s="385" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="403"/>
-      <c r="C5" s="404" t="s">
+      <c r="B5" s="386"/>
+      <c r="C5" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="405"/>
-      <c r="E5" s="406"/>
-      <c r="F5" s="407" t="s">
+      <c r="D5" s="381"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="408"/>
+      <c r="G5" s="388"/>
       <c r="H5" s="83"/>
       <c r="I5" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="409" t="s">
+      <c r="J5" s="389" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="410"/>
+      <c r="K5" s="390"/>
     </row>
     <row r="6" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="391" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="412"/>
-      <c r="C6" s="413">
+      <c r="B6" s="392"/>
+      <c r="C6" s="393">
         <f>MIN(C10:C14)</f>
         <v>43417</v>
       </c>
-      <c r="D6" s="414"/>
-      <c r="E6" s="415"/>
-      <c r="F6" s="416" t="s">
+      <c r="D6" s="394"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="396" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="417"/>
-      <c r="H6" s="413">
+      <c r="G6" s="397"/>
+      <c r="H6" s="393">
         <f>MAX(D10:D14)</f>
-        <v>43646</v>
-      </c>
-      <c r="I6" s="418"/>
-      <c r="J6" s="418"/>
-      <c r="K6" s="419"/>
+        <v>43615</v>
+      </c>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="399"/>
     </row>
     <row r="7" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="394" t="s">
+      <c r="A7" s="375" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="395"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="395"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="395"/>
-      <c r="G7" s="395"/>
-      <c r="H7" s="395"/>
-      <c r="I7" s="395"/>
-      <c r="J7" s="395"/>
-      <c r="K7" s="396"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
+      <c r="E7" s="376"/>
+      <c r="F7" s="376"/>
+      <c r="G7" s="376"/>
+      <c r="H7" s="376"/>
+      <c r="I7" s="376"/>
+      <c r="J7" s="376"/>
+      <c r="K7" s="377"/>
     </row>
     <row r="8" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="400" t="s">
+      <c r="A8" s="410" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="374"/>
-      <c r="C8" s="374" t="s">
+      <c r="B8" s="411"/>
+      <c r="C8" s="411" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="374" t="s">
+      <c r="D8" s="411" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="397" t="s">
+      <c r="E8" s="404" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="398"/>
-      <c r="G8" s="399"/>
-      <c r="H8" s="375"/>
-      <c r="I8" s="351" t="s">
+      <c r="F8" s="405"/>
+      <c r="G8" s="406"/>
+      <c r="H8" s="407"/>
+      <c r="I8" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="376" t="s">
+      <c r="J8" s="422" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="351" t="s">
+      <c r="K8" s="362" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="401"/>
-      <c r="B9" s="375"/>
-      <c r="C9" s="375"/>
-      <c r="D9" s="375"/>
+      <c r="A9" s="412"/>
+      <c r="B9" s="407"/>
+      <c r="C9" s="407"/>
+      <c r="D9" s="407"/>
       <c r="E9" s="84" t="s">
         <v>102</v>
       </c>
@@ -7532,15 +7545,15 @@
       <c r="H9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="351"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="351"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="422"/>
+      <c r="K9" s="362"/>
     </row>
     <row r="10" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="382" t="s">
+      <c r="A10" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="383"/>
+      <c r="B10" s="409"/>
       <c r="C10" s="85">
         <f>里程碑计划!C6</f>
         <v>43417</v>
@@ -7567,7 +7580,7 @@
       </c>
       <c r="I10" s="108">
         <f>项目日常费用!E15</f>
-        <v>58.679706601466989</v>
+        <v>58.076225045372048</v>
       </c>
       <c r="J10" s="271">
         <f>人力资源成本计划!M4</f>
@@ -7575,14 +7588,14 @@
       </c>
       <c r="K10" s="109">
         <f>F10+H10+I10+J10</f>
-        <v>18118.679706601466</v>
+        <v>18118.076225045374</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="382" t="s">
+      <c r="A11" s="408" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="383"/>
+      <c r="B11" s="409"/>
       <c r="C11" s="85">
         <f>里程碑计划!D6</f>
         <v>43423</v>
@@ -7593,11 +7606,11 @@
       </c>
       <c r="E11" s="86">
         <f>里程碑计划!D26</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F11" s="87">
         <f>人力资源成本计划!F5</f>
-        <v>32200</v>
+        <v>60200</v>
       </c>
       <c r="G11" s="86">
         <f>里程碑计划!D27</f>
@@ -7609,7 +7622,7 @@
       </c>
       <c r="I11" s="108">
         <f>项目日常费用!E16</f>
-        <v>112.46943765281173</v>
+        <v>208.10647307924984</v>
       </c>
       <c r="J11" s="107">
         <f>人力资源成本计划!M5</f>
@@ -7617,14 +7630,14 @@
       </c>
       <c r="K11" s="109">
         <f>F11+H11+I11+J11</f>
-        <v>33512.469437652813</v>
+        <v>61608.10647307925</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="382" t="s">
+      <c r="A12" s="408" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="383"/>
+      <c r="B12" s="409"/>
       <c r="C12" s="85">
         <f>里程碑计划!E6</f>
         <v>43430</v>
@@ -7651,22 +7664,22 @@
       </c>
       <c r="I12" s="108">
         <f>项目日常费用!E17</f>
-        <v>2559.9022004889976</v>
+        <v>2533.5753176043554</v>
       </c>
       <c r="J12" s="271">
         <f>人力资源成本计划!M6</f>
-        <v>37200</v>
+        <v>87200</v>
       </c>
       <c r="K12" s="109">
         <f>F12+H12+I12+J12</f>
-        <v>772659.90220048896</v>
+        <v>822633.57531760435</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="384" t="s">
+      <c r="A13" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="385"/>
+      <c r="B13" s="426"/>
       <c r="C13" s="85">
         <f>里程碑计划!F6</f>
         <v>43514</v>
@@ -7677,11 +7690,11 @@
       </c>
       <c r="E13" s="86">
         <f>里程碑计划!F26</f>
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F13" s="87">
         <f>人力资源成本计划!F7</f>
-        <v>114800</v>
+        <v>132300</v>
       </c>
       <c r="G13" s="86">
         <f>里程碑计划!F27</f>
@@ -7693,7 +7706,7 @@
       </c>
       <c r="I13" s="108">
         <f>项目日常费用!E18</f>
-        <v>400.97799511002444</v>
+        <v>457.35027223230492</v>
       </c>
       <c r="J13" s="271">
         <f>人力资源成本计划!M7</f>
@@ -7701,29 +7714,29 @@
       </c>
       <c r="K13" s="109">
         <f>F13+H13+I13+J13</f>
-        <v>119280.97799511002</v>
+        <v>136837.35027223232</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="382" t="s">
+      <c r="A14" s="408" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="383"/>
+      <c r="B14" s="409"/>
       <c r="C14" s="85">
         <f>里程碑计划!G6</f>
         <v>43570</v>
       </c>
       <c r="D14" s="85">
         <f>里程碑计划!G7</f>
-        <v>43646</v>
+        <v>43615</v>
       </c>
       <c r="E14" s="86">
         <f>里程碑计划!G26</f>
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="F14" s="87">
         <f>人力资源成本计划!F8</f>
-        <v>248500</v>
+        <v>214900</v>
       </c>
       <c r="G14" s="86">
         <f>里程碑计划!G27</f>
@@ -7735,31 +7748,31 @@
       </c>
       <c r="I14" s="108">
         <f>项目日常费用!E19</f>
-        <v>867.97066014669917</v>
+        <v>742.89171203871751</v>
       </c>
       <c r="J14" s="271">
         <f>人力资源成本计划!M8</f>
-        <v>3360</v>
+        <v>53360</v>
       </c>
       <c r="K14" s="109">
         <f>F14+H14+I14+J14</f>
-        <v>252727.9706601467</v>
+        <v>269002.89171203872</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="427" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="387"/>
-      <c r="C15" s="387"/>
-      <c r="D15" s="387"/>
+      <c r="B15" s="428"/>
+      <c r="C15" s="428"/>
+      <c r="D15" s="428"/>
       <c r="E15" s="88">
         <f t="shared" ref="E15:K15" si="0">SUM(E10:E14)</f>
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="F15" s="89">
         <f t="shared" si="0"/>
-        <v>1145200</v>
+        <v>1157100</v>
       </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
@@ -7775,51 +7788,51 @@
       </c>
       <c r="J15" s="110">
         <f t="shared" si="0"/>
-        <v>47100</v>
+        <v>147100</v>
       </c>
       <c r="K15" s="110">
         <f t="shared" si="0"/>
-        <v>1196300</v>
+        <v>1308200</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="390" t="s">
+      <c r="A16" s="400" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="391"/>
-      <c r="C16" s="391"/>
-      <c r="D16" s="391"/>
-      <c r="E16" s="391"/>
-      <c r="F16" s="391"/>
-      <c r="G16" s="392"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="392"/>
-      <c r="J16" s="392"/>
-      <c r="K16" s="393"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="401"/>
+      <c r="D16" s="401"/>
+      <c r="E16" s="401"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="402"/>
+      <c r="H16" s="402"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="403"/>
     </row>
     <row r="17" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="377" t="s">
+      <c r="A17" s="423" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="355"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="355"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="355" t="s">
+      <c r="B17" s="366"/>
+      <c r="C17" s="366"/>
+      <c r="D17" s="366"/>
+      <c r="E17" s="417"/>
+      <c r="F17" s="366" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="375"/>
-      <c r="H17" s="375"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="375"/>
-      <c r="K17" s="379"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="407"/>
+      <c r="I17" s="407"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="415"/>
       <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="380" t="s">
+      <c r="A18" s="424" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="417"/>
       <c r="C18" s="84" t="s">
         <v>60</v>
       </c>
@@ -7827,67 +7840,67 @@
         <v>130</v>
       </c>
       <c r="E18" s="94"/>
-      <c r="F18" s="351" t="s">
+      <c r="F18" s="362" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="375"/>
-      <c r="H18" s="375"/>
-      <c r="I18" s="381">
+      <c r="G18" s="407"/>
+      <c r="H18" s="407"/>
+      <c r="I18" s="414">
         <f>F15+J15</f>
-        <v>1192300</v>
-      </c>
-      <c r="J18" s="375" t="s">
+        <v>1304200</v>
+      </c>
+      <c r="J18" s="407" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="379" t="s">
+      <c r="K18" s="415" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="78" customFormat="1">
-      <c r="A19" s="388" t="s">
+      <c r="A19" s="413" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="366"/>
+      <c r="B19" s="353"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97">
         <f>E15</f>
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="E19" s="98"/>
-      <c r="F19" s="351" t="s">
+      <c r="F19" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="375"/>
-      <c r="H19" s="375"/>
-      <c r="I19" s="381">
+      <c r="G19" s="407"/>
+      <c r="H19" s="407"/>
+      <c r="I19" s="414">
         <f>I15</f>
         <v>4000</v>
       </c>
-      <c r="J19" s="375"/>
-      <c r="K19" s="379"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="415"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="389" t="s">
+      <c r="A20" s="416" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="378"/>
+      <c r="B20" s="417"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97">
         <f>G15</f>
         <v>0</v>
       </c>
       <c r="E20" s="98"/>
-      <c r="F20" s="351" t="s">
+      <c r="F20" s="362" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="375"/>
-      <c r="H20" s="375"/>
-      <c r="I20" s="381">
+      <c r="G20" s="407"/>
+      <c r="H20" s="407"/>
+      <c r="I20" s="414">
         <f>H15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="375"/>
-      <c r="K20" s="379"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="415"/>
     </row>
     <row r="21" spans="1:12" s="78" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="99"/>
@@ -7895,19 +7908,19 @@
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
-      <c r="F21" s="370" t="s">
+      <c r="F21" s="418" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="371"/>
-      <c r="H21" s="371" t="e">
+      <c r="G21" s="419"/>
+      <c r="H21" s="419" t="e">
         <f>IF(G21&gt;(#REF!-#REF!-#REF!)*0.5%,"F","")</f>
         <v>#REF!</v>
       </c>
-      <c r="I21" s="372" t="s">
+      <c r="I21" s="420" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="371"/>
-      <c r="K21" s="373"/>
+      <c r="J21" s="419"/>
+      <c r="K21" s="421"/>
     </row>
     <row r="23" spans="1:12" ht="29.25" customHeight="1">
       <c r="A23" s="101"/>
@@ -7921,34 +7934,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="44">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="C8:C9"/>
@@ -7965,6 +7950,34 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.34930555555555598" right="0.25902777777777802" top="0.28680555555555598" bottom="0.227777777777778" header="0.16875000000000001" footer="0.16875000000000001"/>
@@ -7981,8 +7994,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -8034,11 +8047,11 @@
       <c r="A3" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="404" t="s">
+      <c r="B3" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="405"/>
-      <c r="D3" s="406"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="382"/>
       <c r="E3" s="302"/>
       <c r="F3" s="299"/>
       <c r="G3" s="299"/>
@@ -8067,7 +8080,7 @@
       </c>
       <c r="H4" s="298">
         <f>里程碑计划!G7</f>
-        <v>43646</v>
+        <v>43615</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="25.5" customHeight="1">
@@ -8489,7 +8502,7 @@
       </c>
       <c r="D16" s="36">
         <f>人力资源成本计划!F10</f>
-        <v>1145200</v>
+        <v>1157100</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>174</v>
@@ -8506,7 +8519,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="36">
         <f>人力资源成本计划!I10+人力资源成本计划!L10</f>
-        <v>47100</v>
+        <v>147100</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>176</v>
@@ -8523,7 +8536,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="48">
         <f>SUM(D6:D17)</f>
-        <v>1375364.9056603773</v>
+        <v>1487264.9056603773</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48">
